--- a/INFORM2020/data/inform-covid-19-risk-index-v012.xlsx
+++ b/INFORM2020/data/inform-covid-19-risk-index-v012.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\INFORM2020\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARINDI\Documents\GitHub\jmarindi.github.io\INFORM2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD0E3B-E6D4-4D17-8361-EBA901E43735}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10B8665-FDD6-41CB-9777-3A271DC15E8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96CEAC2D-58DC-431F-AD3A-0E9A309446FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$192</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="416">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -159,9 +162,6 @@
     <t>ATG</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -1282,9 +1282,6 @@
   </si>
   <si>
     <t>ZWE</t>
-  </si>
-  <si>
-    <t>(*) Reliability Index: 0 more reliable, 10 less reliable.</t>
   </si>
 </sst>
 </file>
@@ -1636,17 +1633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B7EA0-631B-46A4-A1E2-64527286AF3E}">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2110,9 +2108,6 @@
       <c r="E6">
         <v>2.5</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
       <c r="G6">
         <v>3.7</v>
       </c>
@@ -2128,9 +2123,6 @@
       <c r="K6">
         <v>5.8</v>
       </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
       <c r="M6">
         <v>2.4</v>
       </c>
@@ -2185,10 +2177,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
       </c>
       <c r="C7">
         <v>2.8</v>
@@ -2266,7 +2258,7 @@
         <v>3.4</v>
       </c>
       <c r="AB7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC7">
         <v>139</v>
@@ -2274,10 +2266,10 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
       </c>
       <c r="C8">
         <v>2.7</v>
@@ -2363,10 +2355,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
       </c>
       <c r="C9">
         <v>2.5</v>
@@ -2444,7 +2436,7 @@
         <v>2.1</v>
       </c>
       <c r="AB9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC9">
         <v>183</v>
@@ -2452,10 +2444,10 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
       </c>
       <c r="C10">
         <v>2.5</v>
@@ -2533,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="AB10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC10">
         <v>161</v>
@@ -2541,10 +2533,10 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
       <c r="C11">
         <v>4.0999999999999996</v>
@@ -2630,10 +2622,10 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
       </c>
       <c r="C12">
         <v>3.4</v>
@@ -2662,9 +2654,6 @@
       <c r="K12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
       <c r="M12">
         <v>2.5</v>
       </c>
@@ -2719,10 +2708,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
       </c>
       <c r="C13">
         <v>6.4</v>
@@ -2751,9 +2740,6 @@
       <c r="K13">
         <v>1.7</v>
       </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
       <c r="M13">
         <v>1</v>
       </c>
@@ -2808,10 +2794,10 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
       </c>
       <c r="C14">
         <v>5.7</v>
@@ -2897,10 +2883,10 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2929,9 +2915,6 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
       <c r="M15">
         <v>1.1000000000000001</v>
       </c>
@@ -2986,10 +2969,10 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
       <c r="C16">
         <v>2.9</v>
@@ -3075,10 +3058,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
       </c>
       <c r="C17">
         <v>3.4</v>
@@ -3156,7 +3139,7 @@
         <v>2.8</v>
       </c>
       <c r="AB17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC17">
         <v>168</v>
@@ -3164,10 +3147,10 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
       </c>
       <c r="C18">
         <v>2.6</v>
@@ -3196,9 +3179,6 @@
       <c r="K18">
         <v>2.4</v>
       </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
       <c r="M18">
         <v>2.5</v>
       </c>
@@ -3253,10 +3233,10 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -3342,10 +3322,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
       </c>
       <c r="C20">
         <v>3.9</v>
@@ -3431,10 +3411,10 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
       </c>
       <c r="C21">
         <v>4.5999999999999996</v>
@@ -3520,10 +3500,10 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
       </c>
       <c r="C22">
         <v>2.1</v>
@@ -3609,10 +3589,10 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
       </c>
       <c r="C23">
         <v>3.9</v>
@@ -3641,9 +3621,6 @@
       <c r="K23">
         <v>7</v>
       </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
       <c r="M23">
         <v>4.8</v>
       </c>
@@ -3698,10 +3675,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3787,10 +3764,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
       </c>
       <c r="C25">
         <v>3.9</v>
@@ -3819,9 +3796,6 @@
       <c r="K25">
         <v>1.9</v>
       </c>
-      <c r="L25" t="s">
-        <v>42</v>
-      </c>
       <c r="M25">
         <v>0.8</v>
       </c>
@@ -3868,7 +3842,7 @@
         <v>3.1</v>
       </c>
       <c r="AB25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC25">
         <v>156</v>
@@ -3876,10 +3850,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
       </c>
       <c r="C26">
         <v>2.7</v>
@@ -3965,10 +3939,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
       </c>
       <c r="C27">
         <v>7.7</v>
@@ -4054,10 +4028,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
       </c>
       <c r="C28">
         <v>6.8</v>
@@ -4143,10 +4117,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
       </c>
       <c r="C29">
         <v>4.7</v>
@@ -4232,10 +4206,10 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
       </c>
       <c r="C30">
         <v>4.9000000000000004</v>
@@ -4321,10 +4295,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
         <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
       </c>
       <c r="C31">
         <v>6.4</v>
@@ -4410,10 +4384,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -4491,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="AB32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC32">
         <v>188</v>
@@ -4499,10 +4473,10 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
       </c>
       <c r="C33">
         <v>6.5</v>
@@ -4588,10 +4562,10 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
       </c>
       <c r="C34">
         <v>7.7</v>
@@ -4677,10 +4651,10 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
       </c>
       <c r="C35">
         <v>2.9</v>
@@ -4758,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="AB35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC35">
         <v>161</v>
@@ -4766,10 +4740,10 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4847,7 +4821,7 @@
         <v>3.4</v>
       </c>
       <c r="AB36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC36">
         <v>139</v>
@@ -4855,10 +4829,10 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
       </c>
       <c r="C37">
         <v>3.8</v>
@@ -4944,10 +4918,10 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
         <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
       </c>
       <c r="C38">
         <v>6.6</v>
@@ -5033,10 +5007,10 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
         <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
       </c>
       <c r="C39">
         <v>5.9</v>
@@ -5122,10 +5096,10 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
       </c>
       <c r="C40">
         <v>7.9</v>
@@ -5211,10 +5185,10 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
         <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>113</v>
       </c>
       <c r="C41">
         <v>3.2</v>
@@ -5292,7 +5266,7 @@
         <v>3.4</v>
       </c>
       <c r="AB41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC41">
         <v>139</v>
@@ -5300,10 +5274,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
         <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
       </c>
       <c r="C42">
         <v>6.6</v>
@@ -5389,10 +5363,10 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
         <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
       </c>
       <c r="C43">
         <v>2.4</v>
@@ -5478,10 +5452,10 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
         <v>118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
       </c>
       <c r="C44">
         <v>2.9</v>
@@ -5559,7 +5533,7 @@
         <v>3.4</v>
       </c>
       <c r="AB44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC44">
         <v>139</v>
@@ -5567,10 +5541,10 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
         <v>120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
       </c>
       <c r="C45">
         <v>2.9</v>
@@ -5648,7 +5622,7 @@
         <v>3.3</v>
       </c>
       <c r="AB45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC45">
         <v>146</v>
@@ -5656,10 +5630,10 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
       </c>
       <c r="C46">
         <v>2.8</v>
@@ -5737,7 +5711,7 @@
         <v>3.4</v>
       </c>
       <c r="AB46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC46">
         <v>139</v>
@@ -5745,10 +5719,10 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
         <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
       </c>
       <c r="C47">
         <v>2.9</v>
@@ -5826,7 +5800,7 @@
         <v>2.1</v>
       </c>
       <c r="AB47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC47">
         <v>183</v>
@@ -5834,10 +5808,10 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
         <v>126</v>
-      </c>
-      <c r="B48" t="s">
-        <v>127</v>
       </c>
       <c r="C48">
         <v>5.4</v>
@@ -5866,9 +5840,6 @@
       <c r="K48">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L48" t="s">
-        <v>42</v>
-      </c>
       <c r="M48">
         <v>4.7</v>
       </c>
@@ -5923,10 +5894,10 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
         <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
       </c>
       <c r="C49">
         <v>3.9</v>
@@ -5937,9 +5908,6 @@
       <c r="E49">
         <v>3.5</v>
       </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
       <c r="G49">
         <v>3.1</v>
       </c>
@@ -5955,9 +5923,6 @@
       <c r="K49">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L49" t="s">
-        <v>42</v>
-      </c>
       <c r="M49">
         <v>1</v>
       </c>
@@ -5970,9 +5935,6 @@
       <c r="P49">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q49" t="s">
-        <v>42</v>
-      </c>
       <c r="R49">
         <v>5.3</v>
       </c>
@@ -6012,10 +5974,10 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
         <v>130</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
       </c>
       <c r="C50">
         <v>4.2</v>
@@ -6101,10 +6063,10 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
         <v>132</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
       </c>
       <c r="C51">
         <v>3.5</v>
@@ -6190,10 +6152,10 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
         <v>134</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6279,10 +6241,10 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
       </c>
       <c r="C53">
         <v>3.8</v>
@@ -6368,10 +6330,10 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" t="s">
-        <v>139</v>
       </c>
       <c r="C54">
         <v>6.7</v>
@@ -6382,9 +6344,6 @@
       <c r="E54">
         <v>6.2</v>
       </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
       <c r="G54">
         <v>0.1</v>
       </c>
@@ -6457,10 +6416,10 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
         <v>140</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
       </c>
       <c r="C55">
         <v>6.4</v>
@@ -6471,9 +6430,6 @@
       <c r="E55">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F55" t="s">
-        <v>42</v>
-      </c>
       <c r="G55">
         <v>2.1</v>
       </c>
@@ -6546,10 +6502,10 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" t="s">
-        <v>143</v>
       </c>
       <c r="C56">
         <v>2.2999999999999998</v>
@@ -6627,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="AB56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC56">
         <v>161</v>
@@ -6635,10 +6591,10 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
         <v>144</v>
-      </c>
-      <c r="B57" t="s">
-        <v>145</v>
       </c>
       <c r="C57">
         <v>4.9000000000000004</v>
@@ -6724,10 +6680,10 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
         <v>146</v>
-      </c>
-      <c r="B58" t="s">
-        <v>147</v>
       </c>
       <c r="C58">
         <v>7.6</v>
@@ -6813,10 +6769,10 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" t="s">
-        <v>149</v>
       </c>
       <c r="C59">
         <v>3.3</v>
@@ -6902,10 +6858,10 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
         <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
       </c>
       <c r="C60">
         <v>2.2999999999999998</v>
@@ -6983,7 +6939,7 @@
         <v>2.1</v>
       </c>
       <c r="AB60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC60">
         <v>183</v>
@@ -6991,10 +6947,10 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
         <v>152</v>
-      </c>
-      <c r="B61" t="s">
-        <v>153</v>
       </c>
       <c r="C61">
         <v>2.8</v>
@@ -7072,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="AB61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC61">
         <v>161</v>
@@ -7080,10 +7036,10 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
         <v>154</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -7169,10 +7125,10 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" t="s">
         <v>156</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
       </c>
       <c r="C63">
         <v>6.9</v>
@@ -7258,10 +7214,10 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
         <v>158</v>
-      </c>
-      <c r="B64" t="s">
-        <v>159</v>
       </c>
       <c r="C64">
         <v>3.1</v>
@@ -7347,10 +7303,10 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
         <v>160</v>
-      </c>
-      <c r="B65" t="s">
-        <v>161</v>
       </c>
       <c r="C65">
         <v>2.2000000000000002</v>
@@ -7428,7 +7384,7 @@
         <v>2.1</v>
       </c>
       <c r="AB65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC65">
         <v>183</v>
@@ -7436,10 +7392,10 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" t="s">
         <v>162</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
       </c>
       <c r="C66">
         <v>5.5</v>
@@ -7525,10 +7481,10 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
         <v>164</v>
-      </c>
-      <c r="B67" t="s">
-        <v>165</v>
       </c>
       <c r="C67">
         <v>2.2000000000000002</v>
@@ -7606,7 +7562,7 @@
         <v>3.3</v>
       </c>
       <c r="AB67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC67">
         <v>146</v>
@@ -7614,10 +7570,10 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
         <v>166</v>
-      </c>
-      <c r="B68" t="s">
-        <v>167</v>
       </c>
       <c r="C68">
         <v>2.7</v>
@@ -7628,9 +7584,6 @@
       <c r="E68">
         <v>2.7</v>
       </c>
-      <c r="F68" t="s">
-        <v>42</v>
-      </c>
       <c r="G68">
         <v>1.2</v>
       </c>
@@ -7646,9 +7599,6 @@
       <c r="K68">
         <v>5.7</v>
       </c>
-      <c r="L68" t="s">
-        <v>42</v>
-      </c>
       <c r="M68">
         <v>2.4</v>
       </c>
@@ -7703,10 +7653,10 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
         <v>168</v>
-      </c>
-      <c r="B69" t="s">
-        <v>169</v>
       </c>
       <c r="C69">
         <v>4.5999999999999996</v>
@@ -7792,10 +7742,10 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
         <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>171</v>
       </c>
       <c r="C70">
         <v>6.9</v>
@@ -7881,10 +7831,10 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
         <v>172</v>
-      </c>
-      <c r="B71" t="s">
-        <v>173</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -7970,10 +7920,10 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
         <v>174</v>
-      </c>
-      <c r="B72" t="s">
-        <v>175</v>
       </c>
       <c r="C72">
         <v>2.4</v>
@@ -8002,9 +7952,6 @@
       <c r="K72">
         <v>2.6</v>
       </c>
-      <c r="L72" t="s">
-        <v>42</v>
-      </c>
       <c r="M72">
         <v>2.6</v>
       </c>
@@ -8059,10 +8006,10 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" t="s">
         <v>176</v>
-      </c>
-      <c r="B73" t="s">
-        <v>177</v>
       </c>
       <c r="C73">
         <v>6.8</v>
@@ -8148,10 +8095,10 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
         <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>179</v>
       </c>
       <c r="C74">
         <v>4.3</v>
@@ -8237,10 +8184,10 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" t="s">
         <v>180</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
       </c>
       <c r="C75">
         <v>2.4</v>
@@ -8318,7 +8265,7 @@
         <v>3.4</v>
       </c>
       <c r="AB75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC75">
         <v>139</v>
@@ -8326,10 +8273,10 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
         <v>182</v>
-      </c>
-      <c r="B76" t="s">
-        <v>183</v>
       </c>
       <c r="C76">
         <v>3.8</v>
@@ -8358,9 +8305,6 @@
       <c r="K76">
         <v>0.9</v>
       </c>
-      <c r="L76" t="s">
-        <v>42</v>
-      </c>
       <c r="M76">
         <v>1.1000000000000001</v>
       </c>
@@ -8407,7 +8351,7 @@
         <v>2.6</v>
       </c>
       <c r="AB76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC76">
         <v>175</v>
@@ -8415,10 +8359,10 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
         <v>184</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
       </c>
       <c r="C77">
         <v>4.7</v>
@@ -8504,10 +8448,10 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
         <v>186</v>
-      </c>
-      <c r="B78" t="s">
-        <v>187</v>
       </c>
       <c r="C78">
         <v>4.4000000000000004</v>
@@ -8593,10 +8537,10 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
         <v>188</v>
-      </c>
-      <c r="B79" t="s">
-        <v>189</v>
       </c>
       <c r="C79">
         <v>3.6</v>
@@ -8682,10 +8626,10 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
         <v>190</v>
-      </c>
-      <c r="B80" t="s">
-        <v>191</v>
       </c>
       <c r="C80">
         <v>4.2</v>
@@ -8771,10 +8715,10 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
         <v>192</v>
-      </c>
-      <c r="B81" t="s">
-        <v>193</v>
       </c>
       <c r="C81">
         <v>3.1</v>
@@ -8852,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="AB81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC81">
         <v>161</v>
@@ -8860,10 +8804,10 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
         <v>194</v>
-      </c>
-      <c r="B82" t="s">
-        <v>195</v>
       </c>
       <c r="C82">
         <v>4.0999999999999996</v>
@@ -8892,9 +8836,6 @@
       <c r="K82">
         <v>0</v>
       </c>
-      <c r="L82" t="s">
-        <v>42</v>
-      </c>
       <c r="M82">
         <v>2.2000000000000002</v>
       </c>
@@ -8941,7 +8882,7 @@
         <v>2.7</v>
       </c>
       <c r="AB82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC82">
         <v>173</v>
@@ -8949,10 +8890,10 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
         <v>196</v>
-      </c>
-      <c r="B83" t="s">
-        <v>197</v>
       </c>
       <c r="C83">
         <v>2.8</v>
@@ -9030,7 +8971,7 @@
         <v>3.1</v>
       </c>
       <c r="AB83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC83">
         <v>156</v>
@@ -9038,10 +8979,10 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
         <v>198</v>
-      </c>
-      <c r="B84" t="s">
-        <v>199</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -9127,10 +9068,10 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
         <v>200</v>
-      </c>
-      <c r="B85" t="s">
-        <v>201</v>
       </c>
       <c r="C85">
         <v>3.2</v>
@@ -9208,7 +9149,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AB85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC85">
         <v>181</v>
@@ -9216,10 +9157,10 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
         <v>202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>203</v>
       </c>
       <c r="C86">
         <v>4.0999999999999996</v>
@@ -9305,10 +9246,10 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
         <v>204</v>
-      </c>
-      <c r="B87" t="s">
-        <v>205</v>
       </c>
       <c r="C87">
         <v>2.6</v>
@@ -9386,7 +9327,7 @@
         <v>3.1</v>
       </c>
       <c r="AB87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC87">
         <v>156</v>
@@ -9394,10 +9335,10 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
         <v>206</v>
-      </c>
-      <c r="B88" t="s">
-        <v>207</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -9483,10 +9424,10 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
         <v>208</v>
-      </c>
-      <c r="B89" t="s">
-        <v>209</v>
       </c>
       <c r="C89">
         <v>5.9</v>
@@ -9572,10 +9513,10 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
         <v>210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
       </c>
       <c r="C90">
         <v>3.9</v>
@@ -9586,9 +9527,6 @@
       <c r="E90">
         <v>8.4</v>
       </c>
-      <c r="F90" t="s">
-        <v>42</v>
-      </c>
       <c r="G90">
         <v>0.8</v>
       </c>
@@ -9604,9 +9542,6 @@
       <c r="K90">
         <v>9.4</v>
       </c>
-      <c r="L90" t="s">
-        <v>42</v>
-      </c>
       <c r="M90">
         <v>6</v>
       </c>
@@ -9661,10 +9596,10 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s">
         <v>212</v>
-      </c>
-      <c r="B91" t="s">
-        <v>213</v>
       </c>
       <c r="C91">
         <v>3.9</v>
@@ -9742,7 +9677,7 @@
         <v>2.9</v>
       </c>
       <c r="AB91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC91">
         <v>167</v>
@@ -9750,10 +9685,10 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" t="s">
         <v>214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>215</v>
       </c>
       <c r="C92">
         <v>4.9000000000000004</v>
@@ -9839,10 +9774,10 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" t="s">
         <v>216</v>
-      </c>
-      <c r="B93" t="s">
-        <v>217</v>
       </c>
       <c r="C93">
         <v>3.1</v>
@@ -9928,10 +9863,10 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" t="s">
         <v>218</v>
-      </c>
-      <c r="B94" t="s">
-        <v>219</v>
       </c>
       <c r="C94">
         <v>4.0999999999999996</v>
@@ -10017,10 +9952,10 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" t="s">
         <v>220</v>
-      </c>
-      <c r="B95" t="s">
-        <v>221</v>
       </c>
       <c r="C95">
         <v>2.4</v>
@@ -10098,7 +10033,7 @@
         <v>3.4</v>
       </c>
       <c r="AB95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC95">
         <v>139</v>
@@ -10106,10 +10041,10 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" t="s">
         <v>222</v>
-      </c>
-      <c r="B96" t="s">
-        <v>223</v>
       </c>
       <c r="C96">
         <v>4.5</v>
@@ -10195,10 +10130,10 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" t="s">
         <v>224</v>
-      </c>
-      <c r="B97" t="s">
-        <v>225</v>
       </c>
       <c r="C97">
         <v>5.5</v>
@@ -10284,10 +10219,10 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" t="s">
         <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>227</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -10373,10 +10308,10 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" t="s">
         <v>228</v>
-      </c>
-      <c r="B99" t="s">
-        <v>229</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -10462,10 +10397,10 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" t="s">
         <v>230</v>
-      </c>
-      <c r="B100" t="s">
-        <v>231</v>
       </c>
       <c r="C100">
         <v>1.9</v>
@@ -10476,9 +10411,6 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" t="s">
-        <v>42</v>
-      </c>
       <c r="G100">
         <v>0</v>
       </c>
@@ -10488,15 +10420,9 @@
       <c r="I100">
         <v>2.6</v>
       </c>
-      <c r="J100" t="s">
-        <v>42</v>
-      </c>
       <c r="K100">
         <v>0.8</v>
       </c>
-      <c r="L100" t="s">
-        <v>42</v>
-      </c>
       <c r="M100">
         <v>1.7</v>
       </c>
@@ -10509,9 +10435,6 @@
       <c r="P100">
         <v>3.1</v>
       </c>
-      <c r="Q100" t="s">
-        <v>42</v>
-      </c>
       <c r="R100">
         <v>4</v>
       </c>
@@ -10524,18 +10447,9 @@
       <c r="U100">
         <v>1.5</v>
       </c>
-      <c r="V100" t="s">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s">
-        <v>42</v>
-      </c>
       <c r="X100">
         <v>1.5</v>
       </c>
-      <c r="Y100" t="s">
-        <v>42</v>
-      </c>
       <c r="Z100">
         <v>1.5</v>
       </c>
@@ -10543,7 +10457,7 @@
         <v>1.9</v>
       </c>
       <c r="AB100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC100">
         <v>189</v>
@@ -10551,10 +10465,10 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
         <v>233</v>
-      </c>
-      <c r="B101" t="s">
-        <v>234</v>
       </c>
       <c r="C101">
         <v>2.4</v>
@@ -10632,7 +10546,7 @@
         <v>2.8</v>
       </c>
       <c r="AB101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC101">
         <v>168</v>
@@ -10640,10 +10554,10 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
         <v>235</v>
-      </c>
-      <c r="B102" t="s">
-        <v>236</v>
       </c>
       <c r="C102">
         <v>3.8</v>
@@ -10721,7 +10635,7 @@
         <v>3.1</v>
       </c>
       <c r="AB102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC102">
         <v>156</v>
@@ -10729,10 +10643,10 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" t="s">
         <v>237</v>
-      </c>
-      <c r="B103" t="s">
-        <v>238</v>
       </c>
       <c r="C103">
         <v>6.9</v>
@@ -10818,10 +10732,10 @@
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
         <v>239</v>
-      </c>
-      <c r="B104" t="s">
-        <v>240</v>
       </c>
       <c r="C104">
         <v>6.6</v>
@@ -10907,10 +10821,10 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" t="s">
         <v>241</v>
-      </c>
-      <c r="B105" t="s">
-        <v>242</v>
       </c>
       <c r="C105">
         <v>4.2</v>
@@ -10988,7 +10902,7 @@
         <v>3.2</v>
       </c>
       <c r="AB105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC105">
         <v>153</v>
@@ -10996,10 +10910,10 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s">
         <v>243</v>
-      </c>
-      <c r="B106" t="s">
-        <v>244</v>
       </c>
       <c r="C106">
         <v>4.8</v>
@@ -11085,10 +10999,10 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s">
         <v>245</v>
-      </c>
-      <c r="B107" t="s">
-        <v>246</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -11174,10 +11088,10 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s">
         <v>247</v>
-      </c>
-      <c r="B108" t="s">
-        <v>248</v>
       </c>
       <c r="C108">
         <v>4.7</v>
@@ -11263,10 +11177,10 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" t="s">
         <v>249</v>
-      </c>
-      <c r="B109" t="s">
-        <v>250</v>
       </c>
       <c r="C109">
         <v>4.7</v>
@@ -11277,9 +11191,6 @@
       <c r="E109">
         <v>4</v>
       </c>
-      <c r="F109" t="s">
-        <v>42</v>
-      </c>
       <c r="G109">
         <v>8.1999999999999993</v>
       </c>
@@ -11310,9 +11221,6 @@
       <c r="P109">
         <v>5.8</v>
       </c>
-      <c r="Q109" t="s">
-        <v>42</v>
-      </c>
       <c r="R109">
         <v>4.7</v>
       </c>
@@ -11352,10 +11260,10 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" t="s">
         <v>251</v>
-      </c>
-      <c r="B110" t="s">
-        <v>252</v>
       </c>
       <c r="C110">
         <v>6.3</v>
@@ -11441,10 +11349,10 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" t="s">
         <v>253</v>
-      </c>
-      <c r="B111" t="s">
-        <v>254</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -11473,9 +11381,6 @@
       <c r="K111">
         <v>2</v>
       </c>
-      <c r="L111" t="s">
-        <v>42</v>
-      </c>
       <c r="M111">
         <v>0.9</v>
       </c>
@@ -11530,10 +11435,10 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>254</v>
+      </c>
+      <c r="B112" t="s">
         <v>255</v>
-      </c>
-      <c r="B112" t="s">
-        <v>256</v>
       </c>
       <c r="C112">
         <v>3.3</v>
@@ -11619,10 +11524,10 @@
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B113" t="s">
         <v>257</v>
-      </c>
-      <c r="B113" t="s">
-        <v>258</v>
       </c>
       <c r="C113">
         <v>3.6</v>
@@ -11708,10 +11613,10 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>258</v>
+      </c>
+      <c r="B114" t="s">
         <v>259</v>
-      </c>
-      <c r="B114" t="s">
-        <v>260</v>
       </c>
       <c r="C114">
         <v>3.8</v>
@@ -11797,10 +11702,10 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" t="s">
         <v>261</v>
-      </c>
-      <c r="B115" t="s">
-        <v>262</v>
       </c>
       <c r="C115">
         <v>3.8</v>
@@ -11886,10 +11791,10 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
         <v>263</v>
-      </c>
-      <c r="B116" t="s">
-        <v>264</v>
       </c>
       <c r="C116">
         <v>2.7</v>
@@ -11975,10 +11880,10 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B117" t="s">
         <v>265</v>
-      </c>
-      <c r="B117" t="s">
-        <v>266</v>
       </c>
       <c r="C117">
         <v>4.0999999999999996</v>
@@ -12064,10 +11969,10 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" t="s">
         <v>267</v>
-      </c>
-      <c r="B118" t="s">
-        <v>268</v>
       </c>
       <c r="C118">
         <v>6.9</v>
@@ -12153,10 +12058,10 @@
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
         <v>269</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
       </c>
       <c r="C119">
         <v>4.3</v>
@@ -12242,10 +12147,10 @@
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" t="s">
         <v>271</v>
-      </c>
-      <c r="B120" t="s">
-        <v>272</v>
       </c>
       <c r="C120">
         <v>5.0999999999999996</v>
@@ -12331,10 +12236,10 @@
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" t="s">
         <v>273</v>
-      </c>
-      <c r="B121" t="s">
-        <v>274</v>
       </c>
       <c r="C121">
         <v>4.9000000000000004</v>
@@ -12345,9 +12250,6 @@
       <c r="E121">
         <v>2.8</v>
       </c>
-      <c r="F121" t="s">
-        <v>42</v>
-      </c>
       <c r="G121">
         <v>7.2</v>
       </c>
@@ -12363,9 +12265,6 @@
       <c r="K121">
         <v>5</v>
       </c>
-      <c r="L121" t="s">
-        <v>42</v>
-      </c>
       <c r="M121">
         <v>4.3</v>
       </c>
@@ -12378,9 +12277,6 @@
       <c r="P121">
         <v>6.7</v>
       </c>
-      <c r="Q121" t="s">
-        <v>42</v>
-      </c>
       <c r="R121">
         <v>5.0999999999999996</v>
       </c>
@@ -12420,10 +12316,10 @@
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" t="s">
         <v>275</v>
-      </c>
-      <c r="B122" t="s">
-        <v>276</v>
       </c>
       <c r="C122">
         <v>5.0999999999999996</v>
@@ -12509,10 +12405,10 @@
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" t="s">
         <v>277</v>
-      </c>
-      <c r="B123" t="s">
-        <v>278</v>
       </c>
       <c r="C123">
         <v>3.5</v>
@@ -12590,7 +12486,7 @@
         <v>2.4</v>
       </c>
       <c r="AB123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC123">
         <v>178</v>
@@ -12598,10 +12494,10 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" t="s">
         <v>279</v>
-      </c>
-      <c r="B124" t="s">
-        <v>280</v>
       </c>
       <c r="C124">
         <v>3.1</v>
@@ -12679,7 +12575,7 @@
         <v>2.1</v>
       </c>
       <c r="AB124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC124">
         <v>183</v>
@@ -12687,10 +12583,10 @@
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" t="s">
         <v>281</v>
-      </c>
-      <c r="B125" t="s">
-        <v>282</v>
       </c>
       <c r="C125">
         <v>4.3</v>
@@ -12776,10 +12672,10 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
         <v>283</v>
-      </c>
-      <c r="B126" t="s">
-        <v>284</v>
       </c>
       <c r="C126">
         <v>7.1</v>
@@ -12865,10 +12761,10 @@
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>284</v>
+      </c>
+      <c r="B127" t="s">
         <v>285</v>
-      </c>
-      <c r="B127" t="s">
-        <v>286</v>
       </c>
       <c r="C127">
         <v>6.5</v>
@@ -12954,10 +12850,10 @@
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>286</v>
+      </c>
+      <c r="B128" t="s">
         <v>287</v>
-      </c>
-      <c r="B128" t="s">
-        <v>288</v>
       </c>
       <c r="C128">
         <v>2.5</v>
@@ -13043,10 +12939,10 @@
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
         <v>289</v>
-      </c>
-      <c r="B129" t="s">
-        <v>290</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -13124,7 +13020,7 @@
         <v>1.9</v>
       </c>
       <c r="AB129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC129">
         <v>189</v>
@@ -13132,10 +13028,10 @@
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
         <v>291</v>
-      </c>
-      <c r="B130" t="s">
-        <v>292</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -13213,7 +13109,7 @@
         <v>3</v>
       </c>
       <c r="AB130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC130">
         <v>161</v>
@@ -13221,10 +13117,10 @@
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>292</v>
+      </c>
+      <c r="B131" t="s">
         <v>293</v>
-      </c>
-      <c r="B131" t="s">
-        <v>294</v>
       </c>
       <c r="C131">
         <v>5.3</v>
@@ -13310,10 +13206,10 @@
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
         <v>295</v>
-      </c>
-      <c r="B132" t="s">
-        <v>296</v>
       </c>
       <c r="C132">
         <v>3.5</v>
@@ -13324,9 +13220,6 @@
       <c r="E132">
         <v>1.7</v>
       </c>
-      <c r="F132" t="s">
-        <v>42</v>
-      </c>
       <c r="G132">
         <v>6.8</v>
       </c>
@@ -13357,9 +13250,6 @@
       <c r="P132">
         <v>2.9</v>
       </c>
-      <c r="Q132" t="s">
-        <v>42</v>
-      </c>
       <c r="R132">
         <v>3.7</v>
       </c>
@@ -13399,10 +13289,10 @@
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>296</v>
+      </c>
+      <c r="B133" t="s">
         <v>297</v>
-      </c>
-      <c r="B133" t="s">
-        <v>298</v>
       </c>
       <c r="C133">
         <v>5.0999999999999996</v>
@@ -13488,10 +13378,10 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>298</v>
+      </c>
+      <c r="B134" t="s">
         <v>299</v>
-      </c>
-      <c r="B134" t="s">
-        <v>300</v>
       </c>
       <c r="C134">
         <v>3.6</v>
@@ -13577,10 +13467,10 @@
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>300</v>
+      </c>
+      <c r="B135" t="s">
         <v>301</v>
-      </c>
-      <c r="B135" t="s">
-        <v>302</v>
       </c>
       <c r="C135">
         <v>5.6</v>
@@ -13609,9 +13499,6 @@
       <c r="K135">
         <v>3.9</v>
       </c>
-      <c r="L135" t="s">
-        <v>42</v>
-      </c>
       <c r="M135">
         <v>4.7</v>
       </c>
@@ -13666,10 +13553,10 @@
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>302</v>
+      </c>
+      <c r="B136" t="s">
         <v>303</v>
-      </c>
-      <c r="B136" t="s">
-        <v>304</v>
       </c>
       <c r="C136">
         <v>2.5</v>
@@ -13755,10 +13642,10 @@
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" t="s">
         <v>305</v>
-      </c>
-      <c r="B137" t="s">
-        <v>306</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -13844,10 +13731,10 @@
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>306</v>
+      </c>
+      <c r="B138" t="s">
         <v>307</v>
-      </c>
-      <c r="B138" t="s">
-        <v>308</v>
       </c>
       <c r="C138">
         <v>4.5</v>
@@ -13933,10 +13820,10 @@
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
         <v>309</v>
-      </c>
-      <c r="B139" t="s">
-        <v>310</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -14014,7 +13901,7 @@
         <v>3.1</v>
       </c>
       <c r="AB139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC139">
         <v>156</v>
@@ -14022,10 +13909,10 @@
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" t="s">
         <v>311</v>
-      </c>
-      <c r="B140" t="s">
-        <v>312</v>
       </c>
       <c r="C140">
         <v>2.2000000000000002</v>
@@ -14103,7 +13990,7 @@
         <v>2.8</v>
       </c>
       <c r="AB140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC140">
         <v>168</v>
@@ -14111,10 +13998,10 @@
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" t="s">
         <v>313</v>
-      </c>
-      <c r="B141" t="s">
-        <v>314</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -14192,7 +14079,7 @@
         <v>3.3</v>
       </c>
       <c r="AB141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC141">
         <v>146</v>
@@ -14200,10 +14087,10 @@
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" t="s">
         <v>315</v>
-      </c>
-      <c r="B142" t="s">
-        <v>316</v>
       </c>
       <c r="C142">
         <v>2.4</v>
@@ -14289,10 +14176,10 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143" t="s">
         <v>317</v>
-      </c>
-      <c r="B143" t="s">
-        <v>318</v>
       </c>
       <c r="C143">
         <v>2.2999999999999998</v>
@@ -14370,7 +14257,7 @@
         <v>3.2</v>
       </c>
       <c r="AB143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC143">
         <v>153</v>
@@ -14378,10 +14265,10 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144" t="s">
         <v>319</v>
-      </c>
-      <c r="B144" t="s">
-        <v>320</v>
       </c>
       <c r="C144">
         <v>5.9</v>
@@ -14467,10 +14354,10 @@
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" t="s">
         <v>321</v>
-      </c>
-      <c r="B145" t="s">
-        <v>322</v>
       </c>
       <c r="C145">
         <v>2.9</v>
@@ -14481,9 +14368,6 @@
       <c r="E145">
         <v>2.5</v>
       </c>
-      <c r="F145" t="s">
-        <v>42</v>
-      </c>
       <c r="G145">
         <v>0.5</v>
       </c>
@@ -14499,9 +14383,6 @@
       <c r="K145">
         <v>3.5</v>
       </c>
-      <c r="L145" t="s">
-        <v>42</v>
-      </c>
       <c r="M145">
         <v>1.6</v>
       </c>
@@ -14514,9 +14395,6 @@
       <c r="P145">
         <v>3.1</v>
       </c>
-      <c r="Q145" t="s">
-        <v>42</v>
-      </c>
       <c r="R145">
         <v>3.9</v>
       </c>
@@ -14548,7 +14426,7 @@
         <v>3.3</v>
       </c>
       <c r="AB145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC145">
         <v>146</v>
@@ -14556,10 +14434,10 @@
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>322</v>
+      </c>
+      <c r="B146" t="s">
         <v>323</v>
-      </c>
-      <c r="B146" t="s">
-        <v>324</v>
       </c>
       <c r="C146">
         <v>2.5</v>
@@ -14588,9 +14466,6 @@
       <c r="K146">
         <v>6</v>
       </c>
-      <c r="L146" t="s">
-        <v>42</v>
-      </c>
       <c r="M146">
         <v>2.7</v>
       </c>
@@ -14645,10 +14520,10 @@
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" t="s">
         <v>325</v>
-      </c>
-      <c r="B147" t="s">
-        <v>326</v>
       </c>
       <c r="C147">
         <v>3.8</v>
@@ -14659,9 +14534,6 @@
       <c r="E147">
         <v>3.4</v>
       </c>
-      <c r="F147" t="s">
-        <v>42</v>
-      </c>
       <c r="G147">
         <v>1.4</v>
       </c>
@@ -14677,9 +14549,6 @@
       <c r="K147">
         <v>2.1</v>
       </c>
-      <c r="L147" t="s">
-        <v>42</v>
-      </c>
       <c r="M147">
         <v>0.7</v>
       </c>
@@ -14734,10 +14603,10 @@
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" t="s">
         <v>327</v>
-      </c>
-      <c r="B148" t="s">
-        <v>328</v>
       </c>
       <c r="C148">
         <v>1.8</v>
@@ -14815,7 +14684,7 @@
         <v>3.3</v>
       </c>
       <c r="AB148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC148">
         <v>146</v>
@@ -14823,10 +14692,10 @@
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" t="s">
         <v>329</v>
-      </c>
-      <c r="B149" t="s">
-        <v>330</v>
       </c>
       <c r="C149">
         <v>6.4</v>
@@ -14912,10 +14781,10 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>330</v>
+      </c>
+      <c r="B150" t="s">
         <v>331</v>
-      </c>
-      <c r="B150" t="s">
-        <v>332</v>
       </c>
       <c r="C150">
         <v>3.1</v>
@@ -14944,9 +14813,6 @@
       <c r="K150">
         <v>1.7</v>
       </c>
-      <c r="L150" t="s">
-        <v>42</v>
-      </c>
       <c r="M150">
         <v>1.1000000000000001</v>
       </c>
@@ -14993,7 +14859,7 @@
         <v>2.8</v>
       </c>
       <c r="AB150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC150">
         <v>168</v>
@@ -15001,10 +14867,10 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" t="s">
         <v>333</v>
-      </c>
-      <c r="B151" t="s">
-        <v>334</v>
       </c>
       <c r="C151">
         <v>6.1</v>
@@ -15090,10 +14956,10 @@
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>334</v>
+      </c>
+      <c r="B152" t="s">
         <v>335</v>
-      </c>
-      <c r="B152" t="s">
-        <v>336</v>
       </c>
       <c r="C152">
         <v>2.2999999999999998</v>
@@ -15179,10 +15045,10 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>336</v>
+      </c>
+      <c r="B153" t="s">
         <v>337</v>
-      </c>
-      <c r="B153" t="s">
-        <v>338</v>
       </c>
       <c r="C153">
         <v>3.8</v>
@@ -15211,9 +15077,6 @@
       <c r="K153">
         <v>3.7</v>
       </c>
-      <c r="L153" t="s">
-        <v>42</v>
-      </c>
       <c r="M153">
         <v>1.5</v>
       </c>
@@ -15268,10 +15131,10 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>338</v>
+      </c>
+      <c r="B154" t="s">
         <v>339</v>
-      </c>
-      <c r="B154" t="s">
-        <v>340</v>
       </c>
       <c r="C154">
         <v>7.1</v>
@@ -15357,10 +15220,10 @@
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>340</v>
+      </c>
+      <c r="B155" t="s">
         <v>341</v>
-      </c>
-      <c r="B155" t="s">
-        <v>342</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -15438,7 +15301,7 @@
         <v>2.4</v>
       </c>
       <c r="AB155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC155">
         <v>178</v>
@@ -15446,10 +15309,10 @@
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>342</v>
+      </c>
+      <c r="B156" t="s">
         <v>343</v>
-      </c>
-      <c r="B156" t="s">
-        <v>344</v>
       </c>
       <c r="C156">
         <v>2.5</v>
@@ -15527,7 +15390,7 @@
         <v>3.3</v>
       </c>
       <c r="AB156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC156">
         <v>146</v>
@@ -15535,10 +15398,10 @@
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>344</v>
+      </c>
+      <c r="B157" t="s">
         <v>345</v>
-      </c>
-      <c r="B157" t="s">
-        <v>346</v>
       </c>
       <c r="C157">
         <v>2</v>
@@ -15616,7 +15479,7 @@
         <v>2.7</v>
       </c>
       <c r="AB157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC157">
         <v>173</v>
@@ -15624,10 +15487,10 @@
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>346</v>
+      </c>
+      <c r="B158" t="s">
         <v>347</v>
-      </c>
-      <c r="B158" t="s">
-        <v>348</v>
       </c>
       <c r="C158">
         <v>5.7</v>
@@ -15713,10 +15576,10 @@
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>348</v>
+      </c>
+      <c r="B159" t="s">
         <v>349</v>
-      </c>
-      <c r="B159" t="s">
-        <v>350</v>
       </c>
       <c r="C159">
         <v>6.9</v>
@@ -15727,9 +15590,6 @@
       <c r="E159">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F159" t="s">
-        <v>42</v>
-      </c>
       <c r="G159">
         <v>10</v>
       </c>
@@ -15802,10 +15662,10 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>350</v>
+      </c>
+      <c r="B160" t="s">
         <v>351</v>
-      </c>
-      <c r="B160" t="s">
-        <v>352</v>
       </c>
       <c r="C160">
         <v>4.0999999999999996</v>
@@ -15891,10 +15751,10 @@
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>352</v>
+      </c>
+      <c r="B161" t="s">
         <v>353</v>
-      </c>
-      <c r="B161" t="s">
-        <v>354</v>
       </c>
       <c r="C161">
         <v>7.3</v>
@@ -15923,9 +15783,6 @@
       <c r="K161">
         <v>8.1</v>
       </c>
-      <c r="L161" t="s">
-        <v>42</v>
-      </c>
       <c r="M161">
         <v>8.4</v>
       </c>
@@ -15980,10 +15837,10 @@
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" t="s">
         <v>355</v>
-      </c>
-      <c r="B162" t="s">
-        <v>356</v>
       </c>
       <c r="C162">
         <v>2.5</v>
@@ -16061,7 +15918,7 @@
         <v>2.8</v>
       </c>
       <c r="AB162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC162">
         <v>168</v>
@@ -16069,10 +15926,10 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>356</v>
+      </c>
+      <c r="B163" t="s">
         <v>357</v>
-      </c>
-      <c r="B163" t="s">
-        <v>358</v>
       </c>
       <c r="C163">
         <v>3.4</v>
@@ -16158,10 +16015,10 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>358</v>
+      </c>
+      <c r="B164" t="s">
         <v>359</v>
-      </c>
-      <c r="B164" t="s">
-        <v>360</v>
       </c>
       <c r="C164">
         <v>6.8</v>
@@ -16247,10 +16104,10 @@
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>360</v>
+      </c>
+      <c r="B165" t="s">
         <v>361</v>
-      </c>
-      <c r="B165" t="s">
-        <v>362</v>
       </c>
       <c r="C165">
         <v>2.5</v>
@@ -16279,9 +16136,6 @@
       <c r="K165">
         <v>3</v>
       </c>
-      <c r="L165" t="s">
-        <v>42</v>
-      </c>
       <c r="M165">
         <v>1.8</v>
       </c>
@@ -16336,10 +16190,10 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" t="s">
         <v>363</v>
-      </c>
-      <c r="B166" t="s">
-        <v>364</v>
       </c>
       <c r="C166">
         <v>2.8</v>
@@ -16417,7 +16271,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AB166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC166">
         <v>182</v>
@@ -16425,10 +16279,10 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>364</v>
+      </c>
+      <c r="B167" t="s">
         <v>365</v>
-      </c>
-      <c r="B167" t="s">
-        <v>366</v>
       </c>
       <c r="C167">
         <v>3.7</v>
@@ -16506,7 +16360,7 @@
         <v>1.9</v>
       </c>
       <c r="AB167" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AC167">
         <v>189</v>
@@ -16514,10 +16368,10 @@
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>366</v>
+      </c>
+      <c r="B168" t="s">
         <v>367</v>
-      </c>
-      <c r="B168" t="s">
-        <v>368</v>
       </c>
       <c r="C168">
         <v>2.9</v>
@@ -16546,9 +16400,6 @@
       <c r="K168">
         <v>5.6</v>
       </c>
-      <c r="L168" t="s">
-        <v>42</v>
-      </c>
       <c r="M168">
         <v>7.1</v>
       </c>
@@ -16603,10 +16454,10 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>368</v>
+      </c>
+      <c r="B169" t="s">
         <v>369</v>
-      </c>
-      <c r="B169" t="s">
-        <v>370</v>
       </c>
       <c r="C169">
         <v>4.3</v>
@@ -16692,10 +16543,10 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" t="s">
         <v>371</v>
-      </c>
-      <c r="B170" t="s">
-        <v>372</v>
       </c>
       <c r="C170">
         <v>6.4</v>
@@ -16781,10 +16632,10 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>372</v>
+      </c>
+      <c r="B171" t="s">
         <v>373</v>
-      </c>
-      <c r="B171" t="s">
-        <v>374</v>
       </c>
       <c r="C171">
         <v>3.2</v>
@@ -16870,10 +16721,10 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" t="s">
         <v>375</v>
-      </c>
-      <c r="B172" t="s">
-        <v>376</v>
       </c>
       <c r="C172">
         <v>5.6</v>
@@ -16959,10 +16810,10 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>376</v>
+      </c>
+      <c r="B173" t="s">
         <v>377</v>
-      </c>
-      <c r="B173" t="s">
-        <v>378</v>
       </c>
       <c r="C173">
         <v>6.8</v>
@@ -17048,10 +16899,10 @@
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>378</v>
+      </c>
+      <c r="B174" t="s">
         <v>379</v>
-      </c>
-      <c r="B174" t="s">
-        <v>380</v>
       </c>
       <c r="C174">
         <v>2.7</v>
@@ -17137,10 +16988,10 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>380</v>
+      </c>
+      <c r="B175" t="s">
         <v>381</v>
-      </c>
-      <c r="B175" t="s">
-        <v>382</v>
       </c>
       <c r="C175">
         <v>2.6</v>
@@ -17226,10 +17077,10 @@
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>382</v>
+      </c>
+      <c r="B176" t="s">
         <v>383</v>
-      </c>
-      <c r="B176" t="s">
-        <v>384</v>
       </c>
       <c r="C176">
         <v>3.3</v>
@@ -17315,10 +17166,10 @@
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>384</v>
+      </c>
+      <c r="B177" t="s">
         <v>385</v>
-      </c>
-      <c r="B177" t="s">
-        <v>386</v>
       </c>
       <c r="C177">
         <v>3.4</v>
@@ -17404,10 +17255,10 @@
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>386</v>
+      </c>
+      <c r="B178" t="s">
         <v>387</v>
-      </c>
-      <c r="B178" t="s">
-        <v>388</v>
       </c>
       <c r="C178">
         <v>3.1</v>
@@ -17418,9 +17269,6 @@
       <c r="E178">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F178" t="s">
-        <v>42</v>
-      </c>
       <c r="G178">
         <v>0</v>
       </c>
@@ -17485,7 +17333,7 @@
         <v>3.3</v>
       </c>
       <c r="AB178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC178">
         <v>146</v>
@@ -17493,10 +17341,10 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>388</v>
+      </c>
+      <c r="B179" t="s">
         <v>389</v>
-      </c>
-      <c r="B179" t="s">
-        <v>390</v>
       </c>
       <c r="C179">
         <v>4.8</v>
@@ -17540,9 +17388,6 @@
       <c r="P179">
         <v>6</v>
       </c>
-      <c r="Q179" t="s">
-        <v>42</v>
-      </c>
       <c r="R179">
         <v>4.5999999999999996</v>
       </c>
@@ -17582,10 +17427,10 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>390</v>
+      </c>
+      <c r="B180" t="s">
         <v>391</v>
-      </c>
-      <c r="B180" t="s">
-        <v>392</v>
       </c>
       <c r="C180">
         <v>7.1</v>
@@ -17671,10 +17516,10 @@
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" t="s">
         <v>393</v>
-      </c>
-      <c r="B181" t="s">
-        <v>394</v>
       </c>
       <c r="C181">
         <v>2.4</v>
@@ -17760,10 +17605,10 @@
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" t="s">
         <v>395</v>
-      </c>
-      <c r="B182" t="s">
-        <v>396</v>
       </c>
       <c r="C182">
         <v>4.4000000000000004</v>
@@ -17792,9 +17637,6 @@
       <c r="K182">
         <v>1.5</v>
       </c>
-      <c r="L182" t="s">
-        <v>42</v>
-      </c>
       <c r="M182">
         <v>1.6</v>
       </c>
@@ -17841,7 +17683,7 @@
         <v>2.4</v>
       </c>
       <c r="AB182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC182">
         <v>178</v>
@@ -17849,10 +17691,10 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>396</v>
+      </c>
+      <c r="B183" t="s">
         <v>397</v>
-      </c>
-      <c r="B183" t="s">
-        <v>398</v>
       </c>
       <c r="C183">
         <v>3.2</v>
@@ -17930,7 +17772,7 @@
         <v>2.6</v>
       </c>
       <c r="AB183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC183">
         <v>175</v>
@@ -17938,10 +17780,10 @@
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>398</v>
+      </c>
+      <c r="B184" t="s">
         <v>399</v>
-      </c>
-      <c r="B184" t="s">
-        <v>400</v>
       </c>
       <c r="C184">
         <v>2.8</v>
@@ -18019,7 +17861,7 @@
         <v>2.5</v>
       </c>
       <c r="AB184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC184">
         <v>177</v>
@@ -18027,10 +17869,10 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>400</v>
+      </c>
+      <c r="B185" t="s">
         <v>401</v>
-      </c>
-      <c r="B185" t="s">
-        <v>402</v>
       </c>
       <c r="C185">
         <v>2.9</v>
@@ -18108,7 +17950,7 @@
         <v>3.2</v>
       </c>
       <c r="AB185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC185">
         <v>153</v>
@@ -18116,10 +17958,10 @@
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>402</v>
+      </c>
+      <c r="B186" t="s">
         <v>403</v>
-      </c>
-      <c r="B186" t="s">
-        <v>404</v>
       </c>
       <c r="C186">
         <v>3.5</v>
@@ -18205,10 +18047,10 @@
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>404</v>
+      </c>
+      <c r="B187" t="s">
         <v>405</v>
-      </c>
-      <c r="B187" t="s">
-        <v>406</v>
       </c>
       <c r="C187">
         <v>4.7</v>
@@ -18294,10 +18136,10 @@
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>406</v>
+      </c>
+      <c r="B188" t="s">
         <v>407</v>
-      </c>
-      <c r="B188" t="s">
-        <v>408</v>
       </c>
       <c r="C188">
         <v>3.2</v>
@@ -18326,9 +18168,6 @@
       <c r="K188">
         <v>6.1</v>
       </c>
-      <c r="L188" t="s">
-        <v>42</v>
-      </c>
       <c r="M188">
         <v>4.4000000000000004</v>
       </c>
@@ -18383,10 +18222,10 @@
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>408</v>
+      </c>
+      <c r="B189" t="s">
         <v>409</v>
-      </c>
-      <c r="B189" t="s">
-        <v>410</v>
       </c>
       <c r="C189">
         <v>3.7</v>
@@ -18472,10 +18311,10 @@
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>410</v>
+      </c>
+      <c r="B190" t="s">
         <v>411</v>
-      </c>
-      <c r="B190" t="s">
-        <v>412</v>
       </c>
       <c r="C190">
         <v>6.3</v>
@@ -18561,10 +18400,10 @@
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>412</v>
+      </c>
+      <c r="B191" t="s">
         <v>413</v>
-      </c>
-      <c r="B191" t="s">
-        <v>414</v>
       </c>
       <c r="C191">
         <v>6.9</v>
@@ -18650,10 +18489,10 @@
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>414</v>
+      </c>
+      <c r="B192" t="s">
         <v>415</v>
-      </c>
-      <c r="B192" t="s">
-        <v>416</v>
       </c>
       <c r="C192">
         <v>4.8</v>
@@ -18737,12 +18576,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>417</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:AC192" xr:uid="{F1F1355C-6255-4472-A656-07908CE446EA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>